--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74944.15552869585</v>
+        <v>-77382.62862844254</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317.8977367051459</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>163.2510023194152</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>127.7233213733575</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>173.4766677048273</v>
+        <v>126.6087211759699</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>268.4527559423135</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>297.4419710579489</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>24.8611946866153</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>70.3671741371075</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>28.0556196818962</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>92.87435055577281</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0854776630165</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.9384456821508</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.58522891595248</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>148.1185786361432</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1730.119019286789</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2880.323949587803</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2880.323949587803</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2880.323949587803</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2506.858191326723</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>2116.718859350911</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>745.6580485405811</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="U4" t="n">
-        <v>745.6580485405811</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="V4" t="n">
-        <v>745.6580485405811</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="W4" t="n">
-        <v>456.2408785036205</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>456.2408785036205</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>379.6734151344455</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2455.360493382254</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>848.0708164780106</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>848.0708164780106</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
@@ -4996,16 +4996,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>892.5479960384914</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>603.1308260015309</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>603.1308260015309</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5030,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E13" t="n">
-        <v>416.6057892068301</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F13" t="n">
-        <v>269.7158417089197</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G13" t="n">
-        <v>269.7158417089197</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.9255961109956</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>489.9894131830887</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1833.45784922563</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1578.773361019743</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1289.356190982783</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>1061.366640084765</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>840.5740609412353</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>155.0763917523266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7558,7 +7558,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.83610495833466</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>202.0218894515924</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>373.2883541781648</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>47.42036229045108</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012339</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>73.6241777260206</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856703</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>77.24602870709333</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>139.9994244361423</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>20.61870490125435</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016455</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>70.46607471595161</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26314,46 +26314,46 @@
         <v>298593.7657794694</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="F2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="G2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="H2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="F2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="H2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="N2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="M2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="N2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138738</v>
+        <v>51041.86039138746</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="O4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1189126.780900904</v>
+        <v>-1189313.174289443</v>
       </c>
       <c r="C6" t="n">
         <v>126886.0232802675</v>
       </c>
       <c r="D6" t="n">
-        <v>126886.0232802675</v>
+        <v>126886.0232802676</v>
       </c>
       <c r="E6" t="n">
-        <v>-119112.9917621398</v>
+        <v>-119147.7296875755</v>
       </c>
       <c r="F6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="G6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.73211978</v>
       </c>
       <c r="H6" t="n">
-        <v>206299.4700452155</v>
+        <v>206264.7321197802</v>
       </c>
       <c r="I6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="J6" t="n">
-        <v>-11231.73235206178</v>
+        <v>-11266.47027749733</v>
       </c>
       <c r="K6" t="n">
-        <v>206299.4700452155</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="L6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197798</v>
       </c>
       <c r="M6" t="n">
-        <v>121244.4421097039</v>
+        <v>121209.704184268</v>
       </c>
       <c r="N6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197798</v>
       </c>
       <c r="O6" t="n">
-        <v>206299.4700452158</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="P6" t="n">
-        <v>206299.4700452157</v>
+        <v>206264.7321197798</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.642015894096971</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>123.2718505855445</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>46.07228157134185</v>
+        <v>92.94022810019929</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>142.4689697111399</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>51.79899765946413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>154.970785495322</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>180.0496158770558</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>312.3666675263731</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>224.0820236419318</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
